--- a/Grade_SPRING_2024/Grade.xlsx
+++ b/Grade_SPRING_2024/Grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sieng/Documents/Study/MS.Business Analytics/SPRING 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415406CF-A9AF-9048-BE1C-B064559EDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F30F6-791A-0B47-9B22-E7DDAE75F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1740" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{C8792744-C798-3149-96EE-9BED6093D217}"/>
+    <workbookView xWindow="1400" yWindow="1740" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{C8792744-C798-3149-96EE-9BED6093D217}"/>
   </bookViews>
   <sheets>
     <sheet name="FML" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>Max</t>
   </si>
@@ -80,19 +80,31 @@
     <t>List</t>
   </si>
   <si>
-    <t>Quiz 5</t>
-  </si>
-  <si>
     <t>Quiz 4</t>
-  </si>
-  <si>
-    <t>Quiz 3</t>
   </si>
   <si>
     <t>Quiz 2</t>
   </si>
   <si>
     <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Quiz 3</t>
+  </si>
+  <si>
+    <t>Quiz 5</t>
+  </si>
+  <si>
+    <t>Quiz 6</t>
+  </si>
+  <si>
+    <t>Quiz 7</t>
   </si>
 </sst>
 </file>
@@ -102,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,13 +131,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,10 +157,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8CA4EA-C93F-964C-A2F0-A2C0D94215AB}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1754,16 +1760,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E3" s="1">
         <f>B3/C3</f>
@@ -1775,31 +1781,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E14" si="0">B4/C4</f>
+        <f t="shared" ref="E4:E12" si="0">B4/C4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
@@ -1810,15 +1816,18 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>6.25</v>
+      </c>
       <c r="C6">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1838,13 +1847,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
@@ -1852,14 +1861,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
@@ -1868,13 +1877,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
@@ -1886,10 +1895,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
@@ -1898,13 +1907,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
@@ -1913,83 +1922,494 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <f>SUMIF(B2:B12,"&gt;0",C2:C12)</f>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <f>SUM(D2:D12)</f>
+        <v>100</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <f>SUM(B2:B14)</f>
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <f>SUMIF(B2:B14,"&gt;0",C2:C14)</f>
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D2:D14)</f>
-        <v>100</v>
-      </c>
-      <c r="E15" s="1">
-        <f>B15/C15</f>
+        <f>B13/C13</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C15" formula="1"/>
+    <ignoredError sqref="C13" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB5E155-3EF3-5C4D-9741-75FA0A8D2B1E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2/C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E11" si="0">B3/C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <f>SUMIF(B2:B10,"&gt;0",C2:C10)</f>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C11" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A006AA-403D-1946-ACE0-73F19347BA4F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2/C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="C3" s="2">
+        <f>3.57</f>
+        <v>3.57</v>
+      </c>
+      <c r="D3" s="2">
+        <f>3.57</f>
+        <v>3.57</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E14" si="0">B3/C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <f>C4</f>
+        <v>3.57</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:D8" si="1">3.57</f>
+        <v>3.57</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <f>3.58</f>
+        <v>3.58</v>
+      </c>
+      <c r="D9" s="2">
+        <f>3.58</f>
+        <v>3.58</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SUM(B2:B13)</f>
+        <v>17.14</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUMIF(B2:B13,"&gt;0",C2:C13)</f>
+        <v>17.14</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D13)</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C14" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Grade_SPRING_2024/Grade.xlsx
+++ b/Grade_SPRING_2024/Grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sieng/Documents/Study/MS.Business Analytics/SPRING 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F30F6-791A-0B47-9B22-E7DDAE75F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1827EFA-F186-254D-8A71-0FC8A0885898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1740" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{C8792744-C798-3149-96EE-9BED6093D217}"/>
+    <workbookView xWindow="1400" yWindow="1740" windowWidth="27640" windowHeight="16940" xr2:uid="{C8792744-C798-3149-96EE-9BED6093D217}"/>
   </bookViews>
   <sheets>
     <sheet name="FML" sheetId="1" r:id="rId1"/>
@@ -361,8 +361,11 @@
                 <c:pt idx="2">
                   <c:v>14.5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,7 +463,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB90043C-8F9B-4143-B1C5-7663F1BAB292}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1623,6 +1626,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
       <c r="C5">
         <v>15</v>
       </c>
@@ -1631,7 +1637,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1685,11 +1691,11 @@
       </c>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <f>SUMIF(B2:B8,"&gt;0",C2:C8)</f>
-        <v>32.5</v>
+        <v>47.5</v>
       </c>
       <c r="D9">
         <f>SUM(D2:D8)</f>
@@ -1697,7 +1703,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.98461538461538467</v>
+        <v>0.98947368421052628</v>
       </c>
     </row>
   </sheetData>
@@ -2154,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A006AA-403D-1946-ACE0-73F19347BA4F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2203,7 +2209,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>3.57</v>
+        <v>3.5619999999999998</v>
       </c>
       <c r="C3" s="2">
         <f>3.57</f>
@@ -2215,7 +2221,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E14" si="0">B3/C3</f>
-        <v>1</v>
+        <v>0.99775910364145659</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2223,8 +2229,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <f>C4</f>
-        <v>3.57</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:D8" si="1">3.57</f>
@@ -2236,13 +2241,16 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0182072829131652</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>3.1970000000000001</v>
+      </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>3.57</v>
@@ -2253,7 +2261,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8955182072829132</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2390,11 +2398,11 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>17.14</v>
+        <v>20.393999999999998</v>
       </c>
       <c r="C14" s="2">
         <f>SUMIF(B2:B13,"&gt;0",C2:C13)</f>
-        <v>17.14</v>
+        <v>20.71</v>
       </c>
       <c r="D14">
         <f>SUM(D2:D13)</f>
@@ -2402,7 +2410,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98474167069048757</v>
       </c>
     </row>
   </sheetData>

--- a/Grade_SPRING_2024/Grade.xlsx
+++ b/Grade_SPRING_2024/Grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sieng/Documents/Study/MS.Business Analytics/SPRING 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1827EFA-F186-254D-8A71-0FC8A0885898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB154CCD-DC1E-A943-9D2A-53AF3CE27D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1740" windowWidth="27640" windowHeight="16940" xr2:uid="{C8792744-C798-3149-96EE-9BED6093D217}"/>
+    <workbookView xWindow="1400" yWindow="1740" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{C8792744-C798-3149-96EE-9BED6093D217}"/>
   </bookViews>
   <sheets>
     <sheet name="FML" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Max</t>
   </si>
@@ -111,7 +111,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -153,17 +154,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1542,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB90043C-8F9B-4143-B1C5-7663F1BAB292}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1721,7 +1724,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,6 +1843,9 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7">
+        <v>19.600000000000001</v>
+      </c>
       <c r="C7">
         <v>20</v>
       </c>
@@ -1848,7 +1854,7 @@
       </c>
       <c r="E7" s="1">
         <f>B7/C7</f>
-        <v>0</v>
+        <v>0.98000000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1932,11 +1938,11 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B12)</f>
-        <v>27</v>
+        <v>46.6</v>
       </c>
       <c r="C13">
         <f>SUMIF(B2:B12,"&gt;0",C2:C12)</f>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <f>SUM(D2:D12)</f>
@@ -1944,7 +1950,7 @@
       </c>
       <c r="E13" s="1">
         <f>B13/C13</f>
-        <v>1</v>
+        <v>0.99148936170212765</v>
       </c>
     </row>
   </sheetData>
@@ -1957,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB5E155-3EF3-5C4D-9741-75FA0A8D2B1E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,16 +1995,16 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>B2/C2</f>
         <v>1</v>
       </c>
@@ -2007,152 +2013,129 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E11" si="0">B3/C3</f>
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E9" si="0">B3/C3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <f>4.17</f>
+        <v>4.17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <f>SUM(B2:B10)</f>
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <f>SUMIF(B2:B10,"&gt;0",C2:C10)</f>
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <f>SUM(D2:D10)</f>
+      <c r="B9" s="3">
+        <f>SUM(B2:B8)</f>
+        <v>38.17</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SUMIF(B2:B8,"&gt;0",C2:C8)</f>
+        <v>40</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(D2:D8)</f>
         <v>100</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95425000000000004</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C11" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2160,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A006AA-403D-1946-ACE0-73F19347BA4F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2199,7 +2182,7 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>B2/C2</f>
         <v>1</v>
       </c>
@@ -2208,18 +2191,18 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>3.5619999999999998</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <f>3.57</f>
         <v>3.57</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f>3.57</f>
         <v>3.57</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E14" si="0">B3/C3</f>
         <v>0.99775910364145659</v>
       </c>
@@ -2228,18 +2211,18 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>3.6349999999999998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:D8" si="1">3.57</f>
         <v>3.57</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>1.0182072829131652</v>
       </c>
@@ -2248,18 +2231,18 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>3.1970000000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>0.8955182072829132</v>
       </c>
@@ -2268,15 +2251,16 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2285,15 +2269,16 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2302,15 +2287,16 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>3.57</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2319,15 +2305,16 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <f>3.58</f>
         <v>3.58</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f>3.58</f>
         <v>3.58</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2336,28 +2323,32 @@
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="3">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="3">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D10" s="3">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2366,13 +2357,14 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2381,13 +2373,14 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>30</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>30</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2396,21 +2389,21 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f>SUM(B2:B13)</f>
-        <v>20.393999999999998</v>
-      </c>
-      <c r="C14" s="2">
+        <v>35.393999999999998</v>
+      </c>
+      <c r="C14" s="3">
         <f>SUMIF(B2:B13,"&gt;0",C2:C13)</f>
-        <v>20.71</v>
-      </c>
-      <c r="D14">
+        <v>35.71</v>
+      </c>
+      <c r="D14" s="3">
         <f>SUM(D2:D13)</f>
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98474167069048757</v>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99115093811257349</v>
       </c>
     </row>
   </sheetData>
